--- a/project_db_test_publish.xlsx
+++ b/project_db_test_publish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayeletgoldstein/Dropbox/Hadassah College/Courses/AI in Medicine/בינה מלאכותית ברפואה _ MDSS_18/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir levi\PycharmProjects\CDSS-Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B252714A-A852-CB46-A633-0E315946D16E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C3F0E-4BF6-4058-B448-1F57C58C089E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1160" windowWidth="22760" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,23 +576,23 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -616,7 +616,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -640,7 +640,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>32</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>32</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +2798,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>31</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>31</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>31</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>32</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>32</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>32</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>32</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>32</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>32</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>32</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>32</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>32</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>28</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>33</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>28</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>32</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>31</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>28</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>32</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>33</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>28</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>33</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>33</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>33</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>33</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>33</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>33</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>28</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>28</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>28</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>28</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>32</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>32</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>32</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>32</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>32</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>32</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>32</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>32</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>32</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>32</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>32</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>32</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>32</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>32</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>31</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>31</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>31</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>31</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>31</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>31</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>31</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>31</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>31</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>31</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>31</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>31</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>31</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>31</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>14</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>14</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>14</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>14</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>14</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>14</v>
       </c>
@@ -5502,7 +5502,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>14</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>14</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>14</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>14</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>14</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>14</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -5892,7 +5892,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>16</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
     </row>
-    <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
-    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
-    <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
     </row>
-    <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>16</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
     </row>
-    <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>16</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
     </row>
-    <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -6152,7 +6152,7 @@
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
     </row>
-    <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
     </row>
-    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>16</v>
       </c>
@@ -6204,7 +6204,7 @@
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
     </row>
-    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
     </row>
-    <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>16</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
     </row>
-    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
     </row>
-    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -6308,7 +6308,7 @@
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
     </row>
-    <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
     </row>
-    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -6360,7 +6360,7 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
     </row>
-    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>32</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
     </row>
-    <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>33</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>33</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>33</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>33</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
     </row>
-    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>33</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
     </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>33</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
     </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>33</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
     </row>
-    <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>33</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
     </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>33</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
     </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>33</v>
       </c>
@@ -6646,7 +6646,7 @@
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
     </row>
-    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>32</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
     </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>32</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
     </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>32</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
     </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>32</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>32</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>32</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
     </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>32</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
     </row>
-    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>32</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
     </row>
-    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>32</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
     </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>32</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
     </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
@@ -6932,7 +6932,7 @@
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>33</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
     </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>33</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>33</v>
       </c>
@@ -7010,7 +7010,7 @@
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>33</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>33</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
     </row>
-    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>28</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
     </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>28</v>
       </c>
@@ -7114,7 +7114,7 @@
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
     </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>28</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
     </row>
-    <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>32</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
     </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>32</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
     </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>32</v>
       </c>
@@ -7218,7 +7218,7 @@
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
     </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>31</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
     </row>
-    <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>31</v>
       </c>
@@ -7270,85 +7270,85 @@
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>

--- a/project_db_test_publish.xlsx
+++ b/project_db_test_publish.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir levi\PycharmProjects\CDSS-Mini-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir levi\PycharmProjects\CDSS-Mini-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C3F0E-4BF6-4058-B448-1F57C58C089E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4702486-483C-466E-A250-93A493EB13A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,18 +34,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="45">
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Valid start time</t>
-  </si>
-  <si>
-    <t>Transaction time</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
   </si>
   <si>
     <t>Spoon</t>
@@ -166,6 +154,18 @@
   </si>
   <si>
     <t>76477-9</t>
+  </si>
+  <si>
+    <t>First_name</t>
+  </si>
+  <si>
+    <t>Last_name</t>
+  </si>
+  <si>
+    <t>Valid_start_time</t>
+  </si>
+  <si>
+    <t>Transaction_time</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -594,43 +594,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>4500</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5">
         <v>43237.549305555556</v>
@@ -642,19 +642,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1">
         <v>4450</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5">
         <v>43237.549305555556</v>
@@ -668,19 +668,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>5500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5">
         <v>43238.625</v>
@@ -694,19 +694,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>5000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5">
         <v>43237.708333333336</v>
@@ -720,19 +720,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <v>5500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>43238.458333333336</v>
@@ -746,19 +746,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>4400</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5">
         <v>43238.541666666664</v>
@@ -772,19 +772,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>4500</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5">
         <v>43238.791666666664</v>
@@ -798,19 +798,19 @@
     </row>
     <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>4000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5">
         <v>43239.127083333333</v>
@@ -824,19 +824,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>5400</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5">
         <v>43240.458333333336</v>
@@ -850,19 +850,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>440</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5">
         <v>43241.291666666664</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5">
         <v>43239.115277777775</v>
@@ -902,19 +902,19 @@
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3">
         <v>8.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5">
         <v>43240.089583333334</v>
@@ -928,19 +928,19 @@
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3">
         <v>9.8000001907348597</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5">
         <v>43241.113194444442</v>
@@ -954,19 +954,19 @@
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5">
         <v>43239.115277777775</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3">
         <v>8.5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5">
         <v>43240.089583333334</v>
@@ -1006,19 +1006,19 @@
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3">
         <v>9.8000001907348597</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5">
         <v>43241.113194444442</v>
@@ -1032,19 +1032,19 @@
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3">
         <v>127</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F18" s="5">
         <v>43237.414583333331</v>
@@ -1058,19 +1058,19 @@
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3">
         <v>175</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5">
         <v>43237.444444444445</v>
@@ -1084,19 +1084,19 @@
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3">
         <v>198</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5">
         <v>43237.486805555556</v>
@@ -1110,19 +1110,19 @@
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3">
         <v>220</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5">
         <v>43237.549305555556</v>
@@ -1136,19 +1136,19 @@
     </row>
     <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <v>156</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="5">
         <v>43237.618750000001</v>
@@ -1162,19 +1162,19 @@
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3">
         <v>135</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5">
         <v>43237.666666666664</v>
@@ -1188,19 +1188,19 @@
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3">
         <v>110</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="5">
         <v>43237.708333333336</v>
@@ -1214,19 +1214,19 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3">
         <v>119</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F25" s="5">
         <v>43237.75</v>
@@ -1240,19 +1240,19 @@
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3">
         <v>93</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F26" s="5">
         <v>43237.791666666664</v>
@@ -1266,19 +1266,19 @@
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3">
         <v>123</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5">
         <v>43237.833333333336</v>
@@ -1292,19 +1292,19 @@
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3">
         <v>111</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F28" s="5">
         <v>43237.875</v>
@@ -1318,19 +1318,19 @@
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3">
         <v>100</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29" s="5">
         <v>43237.875</v>
@@ -1344,19 +1344,19 @@
     </row>
     <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3">
         <v>85</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F30" s="5">
         <v>43237.958333333336</v>
@@ -1370,19 +1370,19 @@
     </row>
     <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3">
         <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F31" s="5">
         <v>43238.041666666664</v>
@@ -1396,19 +1396,19 @@
     </row>
     <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3">
         <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5">
         <v>43238.083333333336</v>
@@ -1422,19 +1422,19 @@
     </row>
     <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D33" s="3">
         <v>99</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5">
         <v>43238.125</v>
@@ -1448,19 +1448,19 @@
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3">
         <v>110</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5">
         <v>43238.291666666664</v>
@@ -1474,19 +1474,19 @@
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3">
         <v>104</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F35" s="5">
         <v>43238.458333333336</v>
@@ -1500,19 +1500,19 @@
     </row>
     <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3">
         <v>117</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F36" s="5">
         <v>43238.652083333334</v>
@@ -1526,19 +1526,19 @@
     </row>
     <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3">
         <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F37" s="5">
         <v>43239.127083333333</v>
@@ -1552,19 +1552,19 @@
     </row>
     <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3">
         <v>121</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F38" s="5">
         <v>43239.115277777775</v>
@@ -1578,19 +1578,19 @@
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D39" s="3">
         <v>118</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F39" s="5">
         <v>43239.456250000003</v>
@@ -1604,19 +1604,19 @@
     </row>
     <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3">
         <v>117</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F40" s="5">
         <v>43240.089583333334</v>
@@ -1630,19 +1630,19 @@
     </row>
     <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3">
         <v>127</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F41" s="5">
         <v>43240.458333333336</v>
@@ -1656,19 +1656,19 @@
     </row>
     <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3">
         <v>97</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F42" s="5">
         <v>43240.6875</v>
@@ -1682,19 +1682,19 @@
     </row>
     <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3">
         <v>119</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F43" s="5">
         <v>43240.916666666664</v>
@@ -1708,19 +1708,19 @@
     </row>
     <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D44" s="3">
         <v>98</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F44" s="5">
         <v>43241.113194444442</v>
@@ -1734,19 +1734,19 @@
     </row>
     <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5">
         <v>43237.604166666664</v>
@@ -1760,19 +1760,19 @@
     </row>
     <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F46" s="5">
         <v>43237.708333333336</v>
@@ -1786,19 +1786,19 @@
     </row>
     <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F47" s="5">
         <v>43237.791666666664</v>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F48" s="5">
         <v>43237.958333333336</v>
@@ -1838,19 +1838,19 @@
     </row>
     <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F49" s="5">
         <v>43238.125</v>
@@ -1864,19 +1864,19 @@
     </row>
     <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F50" s="5">
         <v>43238.291666666664</v>
@@ -1890,19 +1890,19 @@
     </row>
     <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F51" s="5">
         <v>43238.458333333336</v>
@@ -1916,19 +1916,19 @@
     </row>
     <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F52" s="5">
         <v>43238.625</v>
@@ -1942,19 +1942,19 @@
     </row>
     <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F53" s="5">
         <v>43239.083333333336</v>
@@ -1968,19 +1968,19 @@
     </row>
     <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F54" s="5">
         <v>43238.791666666664</v>
@@ -1994,19 +1994,19 @@
     </row>
     <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F55" s="5">
         <v>43239.291666666664</v>
@@ -2020,19 +2020,19 @@
     </row>
     <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F56" s="5">
         <v>43239.458333333336</v>
@@ -2046,19 +2046,19 @@
     </row>
     <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F57" s="5">
         <v>43240.291666666664</v>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F58" s="5">
         <v>43240.458333333336</v>
@@ -2098,19 +2098,19 @@
     </row>
     <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F59" s="5">
         <v>43241.291666666664</v>
@@ -2124,19 +2124,19 @@
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F60" s="5">
         <v>43241.4375</v>
@@ -2150,19 +2150,19 @@
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F61" s="5">
         <v>43241.625</v>
@@ -2176,19 +2176,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D62" s="1">
         <v>120</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F62" s="5">
         <v>43237.791666666664</v>
@@ -2202,19 +2202,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D63" s="1">
         <v>170</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F63" s="5">
         <v>43237.958333333336</v>
@@ -2228,19 +2228,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D64" s="1">
         <v>70</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F64" s="5">
         <v>43238.125</v>
@@ -2254,19 +2254,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D65" s="1">
         <v>170</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F65" s="5">
         <v>43240.291666666664</v>
@@ -2280,19 +2280,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D66" s="1">
         <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F66" s="5">
         <v>43241.291666666664</v>
@@ -2306,19 +2306,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D67" s="1">
         <v>170</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F67" s="5">
         <v>43237.444444444445</v>
@@ -2332,19 +2332,19 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D68" s="1">
         <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F68" s="5">
         <v>43237.444444444445</v>
@@ -2358,19 +2358,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D69" s="1">
         <v>120</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F69" s="5">
         <v>43238.374305555553</v>
@@ -2384,19 +2384,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D70" s="1">
         <v>128</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F70" s="5">
         <v>43237.604166666664</v>
@@ -2410,19 +2410,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D71" s="1">
         <v>178</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F71" s="5">
         <v>43240.291666666664</v>
@@ -2436,19 +2436,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D72" s="1">
         <v>79</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F72" s="5">
         <v>43237.875</v>
@@ -2462,19 +2462,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D73" s="1">
         <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F73" s="5">
         <v>43238.333333333336</v>
@@ -2488,19 +2488,19 @@
     </row>
     <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D74" s="3">
         <v>52</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F74" s="5">
         <v>43237.414583333331</v>
@@ -2514,19 +2514,19 @@
     </row>
     <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D75" s="3">
         <v>41</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F75" s="5">
         <v>43237.444444444445</v>
@@ -2540,19 +2540,19 @@
     </row>
     <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D76" s="3">
         <v>43</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F76" s="5">
         <v>43237.486805555556</v>
@@ -2566,19 +2566,19 @@
     </row>
     <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D77" s="3">
         <v>54</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F77" s="5">
         <v>43237.549305555556</v>
@@ -2592,19 +2592,19 @@
     </row>
     <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D78" s="3">
         <v>45</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F78" s="5">
         <v>43237.618750000001</v>
@@ -2618,19 +2618,19 @@
     </row>
     <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D79" s="3">
         <v>38</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F79" s="5">
         <v>43237.821527777778</v>
@@ -2644,19 +2644,19 @@
     </row>
     <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D80" s="3">
         <v>35</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F80" s="5">
         <v>43238.374305555553</v>
@@ -2670,19 +2670,19 @@
     </row>
     <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D81" s="3">
         <v>44</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F81" s="5">
         <v>43238.652083333334</v>
@@ -2696,19 +2696,19 @@
     </row>
     <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D82" s="3">
         <v>34</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F82" s="5">
         <v>43239.127083333333</v>
@@ -2722,19 +2722,19 @@
     </row>
     <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D83" s="3">
         <v>37</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F83" s="5">
         <v>43239.206250000003</v>
@@ -2748,19 +2748,19 @@
     </row>
     <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D84" s="3">
         <v>371</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F84" s="5">
         <v>43237.414583333331</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D85" s="3">
         <v>322</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F85" s="5">
         <v>43237.444444444445</v>
@@ -2800,19 +2800,19 @@
     </row>
     <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D86" s="3">
         <v>247</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F86" s="5">
         <v>43237.486805555556</v>
@@ -2826,19 +2826,19 @@
     </row>
     <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D87" s="3">
         <v>146</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F87" s="5">
         <v>43237.549305555556</v>
@@ -2852,19 +2852,19 @@
     </row>
     <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D88" s="3">
         <v>273</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F88" s="5">
         <v>43237.618750000001</v>
@@ -2878,19 +2878,19 @@
     </row>
     <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D89" s="3">
         <v>137</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F89" s="5">
         <v>43237.821527777778</v>
@@ -2904,19 +2904,19 @@
     </row>
     <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D90" s="3">
         <v>138</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F90" s="5">
         <v>43238.374305555553</v>
@@ -2930,19 +2930,19 @@
     </row>
     <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D91" s="3">
         <v>135</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F91" s="5">
         <v>43238.652083333334</v>
@@ -2956,19 +2956,19 @@
     </row>
     <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D92" s="3">
         <v>79</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F92" s="5">
         <v>43239.127083333333</v>
@@ -2982,19 +2982,19 @@
     </row>
     <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D93" s="3">
         <v>91</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F93" s="5">
         <v>43239.206250000003</v>
@@ -3008,19 +3008,19 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D94" s="1">
         <v>71</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F94" s="5">
         <v>43237.486805555556</v>
@@ -3034,19 +3034,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D95" s="1">
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F95" s="5">
         <v>43237.664583333331</v>
@@ -3060,19 +3060,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D96" s="1">
         <v>8.5</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F96" s="5">
         <v>43237.497916666667</v>
@@ -3086,19 +3086,19 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D97" s="1">
         <v>8.25</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F97" s="5">
         <v>43237.789583333331</v>
@@ -3112,19 +3112,19 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D98" s="1">
         <v>7.25</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F98" s="5">
         <v>43237.872916666667</v>
@@ -3138,19 +3138,19 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D99" s="1">
         <v>7.1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F99" s="5">
         <v>43238.652083333334</v>
@@ -3164,19 +3164,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D100" s="1">
         <v>17</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F100" s="5">
         <v>43239.458333333336</v>
@@ -3190,19 +3190,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D101" s="1">
         <v>7</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F101" s="5">
         <v>43239.821527777778</v>
@@ -3216,19 +3216,19 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D102" s="1">
         <v>7.2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F102" s="5">
         <v>43240.089583333334</v>
@@ -3242,19 +3242,19 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D103" s="1">
         <v>38</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F103" s="5">
         <v>43237.604166666664</v>
@@ -3268,19 +3268,19 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D104" s="1">
         <v>38</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F104" s="5">
         <v>43238.291666666664</v>
@@ -3294,19 +3294,19 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D105" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F105" s="5">
         <v>43239.083333333336</v>
@@ -3320,19 +3320,19 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D106" s="1">
         <v>36.799999999999997</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F106" s="5">
         <v>43237.75</v>
@@ -3346,19 +3346,19 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D107" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F107" s="5">
         <v>43241.4375</v>
@@ -3372,19 +3372,19 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D108" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F108" s="5">
         <v>43237.791666666664</v>
@@ -3398,19 +3398,19 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D109" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F109" s="5">
         <v>43237.414583333331</v>
@@ -3424,19 +3424,19 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D110" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F110" s="5">
         <v>43237.618750000001</v>
@@ -3450,19 +3450,19 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D111" s="1">
         <v>38</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F111" s="5">
         <v>43237.821527777778</v>
@@ -3476,19 +3476,19 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D112" s="1">
         <v>38</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F112" s="5">
         <v>43238.208333333336</v>
@@ -3502,19 +3502,19 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D113" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F113" s="5">
         <v>43238.652083333334</v>
@@ -3528,19 +3528,19 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D114" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F114" s="5">
         <v>43239.206250000003</v>
@@ -3554,19 +3554,19 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D115" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F115" s="5">
         <v>43237.414583333331</v>
@@ -3580,19 +3580,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D116" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F116" s="5">
         <v>43237.486805555556</v>
@@ -3606,19 +3606,19 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D117" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F117" s="5">
         <v>43237.618750000001</v>
@@ -3632,19 +3632,19 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D118" s="1">
         <v>39</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F118" s="5">
         <v>43238.374305555553</v>
@@ -3658,19 +3658,19 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D119" s="1">
         <v>37.5</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F119" s="5">
         <v>43239.083333333336</v>
@@ -3684,19 +3684,19 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D120" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F120" s="5">
         <v>43237.708333333336</v>
@@ -3710,19 +3710,19 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D121" s="1">
         <v>38.5</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F121" s="5">
         <v>43239.127083333333</v>
@@ -3736,19 +3736,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D122" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F122" s="5">
         <v>43237.958333333336</v>
@@ -3762,19 +3762,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D123" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F123" s="5">
         <v>43238.625</v>
@@ -3788,19 +3788,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D124" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F124" s="5">
         <v>43239.206250000003</v>
@@ -3814,19 +3814,19 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D125" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F125" s="5">
         <v>43240.458333333336</v>
@@ -3840,19 +3840,19 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D126" s="1">
         <v>38.700000000000003</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F126" s="5">
         <v>43241.625</v>
@@ -3866,19 +3866,19 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D127" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F127" s="5">
         <v>43239.083333333336</v>
@@ -3892,19 +3892,19 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D128" s="1">
         <v>38</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F128" s="5">
         <v>43241.625</v>
@@ -3918,19 +3918,19 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D129" s="1">
         <v>37</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F129" s="5">
         <v>43238.458333333336</v>
@@ -3944,19 +3944,19 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D130" s="1">
         <v>37</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F130" s="5">
         <v>43239.115277777775</v>
@@ -3970,19 +3970,19 @@
     </row>
     <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D131" s="3">
         <v>91</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F131" s="5">
         <v>43227.600694444445</v>
@@ -3996,19 +3996,19 @@
     </row>
     <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D132" s="3">
         <v>92</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F132" s="5">
         <v>43227.604166666664</v>
@@ -4022,19 +4022,19 @@
     </row>
     <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D133" s="3">
         <v>93</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F133" s="5">
         <v>43227.607638888891</v>
@@ -4048,19 +4048,19 @@
     </row>
     <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D134" s="3">
         <v>94</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F134" s="5">
         <v>43227.614583333336</v>
@@ -4074,19 +4074,19 @@
     </row>
     <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D135" s="3">
         <v>95</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F135" s="5">
         <v>43227.625</v>
@@ -4100,19 +4100,19 @@
     </row>
     <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D136" s="3">
         <v>96</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F136" s="5">
         <v>43227.635416666664</v>
@@ -4126,19 +4126,19 @@
     </row>
     <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D137" s="3">
         <v>97</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F137" s="5">
         <v>43227.645833333336</v>
@@ -4152,19 +4152,19 @@
     </row>
     <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D138" s="3">
         <v>98</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F138" s="5">
         <v>43227.65625</v>
@@ -4178,19 +4178,19 @@
     </row>
     <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D139" s="3">
         <v>90</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F139" s="5">
         <v>43237.666666666664</v>
@@ -4204,19 +4204,19 @@
     </row>
     <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D140" s="3">
         <v>90</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F140" s="5">
         <v>43237.677083333336</v>
@@ -4230,19 +4230,19 @@
     </row>
     <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D141" s="3">
         <v>91</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F141" s="5">
         <v>43237.6875</v>
@@ -4256,19 +4256,19 @@
     </row>
     <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D142" s="3">
         <v>90</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F142" s="5">
         <v>43237.697916666664</v>
@@ -4282,19 +4282,19 @@
     </row>
     <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D143" s="3">
         <v>90</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F143" s="5">
         <v>43237.708333333336</v>
@@ -4308,19 +4308,19 @@
     </row>
     <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D144" s="3">
         <v>90</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F144" s="5">
         <v>43237.71875</v>
@@ -4334,19 +4334,19 @@
     </row>
     <row r="145" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D145" s="3">
         <v>90</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F145" s="5">
         <v>43237.729166666664</v>
@@ -4360,19 +4360,19 @@
     </row>
     <row r="146" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D146" s="3">
         <v>90</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F146" s="5">
         <v>43237.739583333336</v>
@@ -4386,19 +4386,19 @@
     </row>
     <row r="147" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D147" s="3">
         <v>90</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F147" s="5">
         <v>43237.75</v>
@@ -4412,19 +4412,19 @@
     </row>
     <row r="148" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D148" s="3">
         <v>89</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F148" s="5">
         <v>43237.75</v>
@@ -4438,19 +4438,19 @@
     </row>
     <row r="149" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D149" s="3">
         <v>90</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F149" s="5">
         <v>43237.791666666664</v>
@@ -4464,19 +4464,19 @@
     </row>
     <row r="150" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D150" s="3">
         <v>61</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F150" s="5">
         <v>43237.8125</v>
@@ -4490,19 +4490,19 @@
     </row>
     <row r="151" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D151" s="3">
         <v>64</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F151" s="5">
         <v>43237.833333333336</v>
@@ -4516,19 +4516,19 @@
     </row>
     <row r="152" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D152" s="3">
         <v>66</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F152" s="5">
         <v>43237.875</v>
@@ -4542,19 +4542,19 @@
     </row>
     <row r="153" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D153" s="3">
         <v>64</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F153" s="5">
         <v>43237.916666666664</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="154" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D154" s="3">
         <v>65</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F154" s="5">
         <v>43237.9375</v>
@@ -4594,19 +4594,19 @@
     </row>
     <row r="155" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D155" s="3">
         <v>64</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F155" s="5">
         <v>43237.958333333336</v>
@@ -4620,19 +4620,19 @@
     </row>
     <row r="156" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D156" s="3">
         <v>64</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F156" s="5">
         <v>43238</v>
@@ -4646,19 +4646,19 @@
     </row>
     <row r="157" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D157" s="3">
         <v>67</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F157" s="5">
         <v>43238.041666666664</v>
@@ -4672,19 +4672,19 @@
     </row>
     <row r="158" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D158" s="3">
         <v>63</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F158" s="5">
         <v>43238.083333333336</v>
@@ -4698,19 +4698,19 @@
     </row>
     <row r="159" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D159" s="3">
         <v>63</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F159" s="5">
         <v>43238.09375</v>
@@ -4724,19 +4724,19 @@
     </row>
     <row r="160" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D160" s="3">
         <v>69</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F160" s="5">
         <v>43238.125</v>
@@ -4750,19 +4750,19 @@
     </row>
     <row r="161" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D161" s="3">
         <v>74</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F161" s="5">
         <v>43238.166666666664</v>
@@ -4776,19 +4776,19 @@
     </row>
     <row r="162" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D162" s="3">
         <v>75</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F162" s="5">
         <v>43238.208333333336</v>
@@ -4802,19 +4802,19 @@
     </row>
     <row r="163" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D163" s="3">
         <v>67</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F163" s="5">
         <v>43238.25</v>
@@ -4828,19 +4828,19 @@
     </row>
     <row r="164" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D164" s="3">
         <v>67</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F164" s="5">
         <v>43238.291666666664</v>
@@ -4854,19 +4854,19 @@
     </row>
     <row r="165" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D165" s="3">
         <v>70</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F165" s="5">
         <v>43238.270833333336</v>
@@ -4880,19 +4880,19 @@
     </row>
     <row r="166" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D166" s="3">
         <v>67</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F166" s="5">
         <v>43238.333333333336</v>
@@ -4906,19 +4906,19 @@
     </row>
     <row r="167" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D167" s="3">
         <v>69</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F167" s="5">
         <v>43238.375</v>
@@ -4932,19 +4932,19 @@
     </row>
     <row r="168" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D168" s="3">
         <v>67</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F168" s="5">
         <v>43238.40625</v>
@@ -4958,19 +4958,19 @@
     </row>
     <row r="169" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D169" s="3">
         <v>64</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F169" s="5">
         <v>43238.416666666664</v>
@@ -4984,19 +4984,19 @@
     </row>
     <row r="170" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D170" s="3">
         <v>63</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F170" s="5">
         <v>43238.458333333336</v>
@@ -5010,19 +5010,19 @@
     </row>
     <row r="171" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D171" s="3">
         <v>69</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F171" s="5">
         <v>43238.5</v>
@@ -5036,19 +5036,19 @@
     </row>
     <row r="172" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D172" s="3">
         <v>66</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F172" s="5">
         <v>43238.541666666664</v>
@@ -5062,19 +5062,19 @@
     </row>
     <row r="173" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D173" s="3">
         <v>74</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F173" s="5">
         <v>43238.583333333336</v>
@@ -5088,19 +5088,19 @@
     </row>
     <row r="174" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D174" s="3">
         <v>70</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F174" s="5">
         <v>43238.625</v>
@@ -5114,19 +5114,19 @@
     </row>
     <row r="175" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D175" s="3">
         <v>62</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F175" s="5">
         <v>43238.666666666664</v>
@@ -5140,19 +5140,19 @@
     </row>
     <row r="176" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D176" s="3">
         <v>62</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F176" s="5">
         <v>43238.708333333336</v>
@@ -5166,19 +5166,19 @@
     </row>
     <row r="177" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D177" s="3">
         <v>61</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F177" s="5">
         <v>43238.75</v>
@@ -5192,19 +5192,19 @@
     </row>
     <row r="178" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D178" s="3">
         <v>75</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F178" s="5">
         <v>43238.791666666664</v>
@@ -5218,19 +5218,19 @@
     </row>
     <row r="179" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D179" s="3">
         <v>69</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F179" s="5">
         <v>43238.833333333336</v>
@@ -5244,19 +5244,19 @@
     </row>
     <row r="180" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D180" s="3">
         <v>65</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F180" s="5">
         <v>43238.875</v>
@@ -5270,19 +5270,19 @@
     </row>
     <row r="181" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D181" s="3">
         <v>64</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F181" s="5">
         <v>43238.916666666664</v>
@@ -5296,19 +5296,19 @@
     </row>
     <row r="182" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D182" s="3">
         <v>65</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F182" s="5">
         <v>43238.958333333336</v>
@@ -5322,19 +5322,19 @@
     </row>
     <row r="183" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D183" s="3">
         <v>64</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F183" s="5">
         <v>43239</v>
@@ -5348,19 +5348,19 @@
     </row>
     <row r="184" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D184" s="3">
         <v>64</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F184" s="5">
         <v>43239.041666666664</v>
@@ -5374,19 +5374,19 @@
     </row>
     <row r="185" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D185" s="3">
         <v>65</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F185" s="5">
         <v>43239.083333333336</v>
@@ -5400,19 +5400,19 @@
     </row>
     <row r="186" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D186" s="3">
         <v>79</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F186" s="5">
         <v>43239.125</v>
@@ -5426,19 +5426,19 @@
     </row>
     <row r="187" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D187" s="3">
         <v>62</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F187" s="5">
         <v>43239.125</v>
@@ -5452,19 +5452,19 @@
     </row>
     <row r="188" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D188" s="3">
         <v>63</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F188" s="5">
         <v>43239.125</v>
@@ -5478,19 +5478,19 @@
     </row>
     <row r="189" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D189" s="3">
         <v>66</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F189" s="5">
         <v>43239.125</v>
@@ -5504,19 +5504,19 @@
     </row>
     <row r="190" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D190" s="3">
         <v>75</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F190" s="5">
         <v>43239.125</v>
@@ -5530,19 +5530,19 @@
     </row>
     <row r="191" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D191" s="3">
         <v>72</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F191" s="5">
         <v>43239.125</v>
@@ -5556,19 +5556,19 @@
     </row>
     <row r="192" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D192" s="3">
         <v>70</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F192" s="5">
         <v>43239.125</v>
@@ -5582,19 +5582,19 @@
     </row>
     <row r="193" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D193" s="3">
         <v>87</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F193" s="5">
         <v>43239.416666666664</v>
@@ -5608,19 +5608,19 @@
     </row>
     <row r="194" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D194" s="3">
         <v>88</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F194" s="5">
         <v>43239.458333333336</v>
@@ -5634,19 +5634,19 @@
     </row>
     <row r="195" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D195" s="3">
         <v>86</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F195" s="5">
         <v>43239.5</v>
@@ -5660,19 +5660,19 @@
     </row>
     <row r="196" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D196" s="3">
         <v>76</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F196" s="5">
         <v>43239.541666666664</v>
@@ -5686,19 +5686,19 @@
     </row>
     <row r="197" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D197" s="3">
         <v>81</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F197" s="5">
         <v>43239.583333333336</v>
@@ -5712,19 +5712,19 @@
     </row>
     <row r="198" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D198" s="3">
         <v>86</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F198" s="5">
         <v>43239.625</v>
@@ -5738,19 +5738,19 @@
     </row>
     <row r="199" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D199" s="3">
         <v>88</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F199" s="5">
         <v>43239.666666666664</v>
@@ -5764,19 +5764,19 @@
     </row>
     <row r="200" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D200" s="3">
         <v>90</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F200" s="5">
         <v>43239.708333333336</v>
@@ -5790,19 +5790,19 @@
     </row>
     <row r="201" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D201" s="3">
         <v>85</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F201" s="5">
         <v>43239.75</v>
@@ -5816,19 +5816,19 @@
     </row>
     <row r="202" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D202" s="3">
         <v>94</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F202" s="5">
         <v>43239.833333333336</v>
@@ -5842,19 +5842,19 @@
     </row>
     <row r="203" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D203" s="3">
         <v>89</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F203" s="5">
         <v>43239.791666666664</v>
@@ -5868,19 +5868,19 @@
     </row>
     <row r="204" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D204" s="3">
         <v>84</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F204" s="5">
         <v>43239.875</v>
@@ -5894,19 +5894,19 @@
     </row>
     <row r="205" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D205" s="3">
         <v>86</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F205" s="5">
         <v>43239.916666666664</v>
@@ -5920,19 +5920,19 @@
     </row>
     <row r="206" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D206" s="3">
         <v>83</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F206" s="5">
         <v>43239.958333333336</v>
@@ -5946,19 +5946,19 @@
     </row>
     <row r="207" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D207" s="3">
         <v>93</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F207" s="5">
         <v>43240</v>
@@ -5972,19 +5972,19 @@
     </row>
     <row r="208" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D208" s="3">
         <v>89</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F208" s="5">
         <v>43240.041666666664</v>
@@ -5998,19 +5998,19 @@
     </row>
     <row r="209" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D209" s="3">
         <v>82</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F209" s="5">
         <v>43240.083333333336</v>
@@ -6024,19 +6024,19 @@
     </row>
     <row r="210" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D210" s="3">
         <v>88</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F210" s="5">
         <v>43240.125</v>
@@ -6050,19 +6050,19 @@
     </row>
     <row r="211" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D211" s="3">
         <v>76</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F211" s="5">
         <v>43240.208333333336</v>
@@ -6076,19 +6076,19 @@
     </row>
     <row r="212" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D212" s="3">
         <v>74</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F212" s="5">
         <v>43240.291666666664</v>
@@ -6102,19 +6102,19 @@
     </row>
     <row r="213" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D213" s="3">
         <v>75</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F213" s="5">
         <v>43240.375</v>
@@ -6128,19 +6128,19 @@
     </row>
     <row r="214" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D214" s="3">
         <v>74</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F214" s="5">
         <v>43240.416666666664</v>
@@ -6154,19 +6154,19 @@
     </row>
     <row r="215" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D215" s="3">
         <v>74</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F215" s="5">
         <v>43240.458333333336</v>
@@ -6180,19 +6180,19 @@
     </row>
     <row r="216" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D216" s="3">
         <v>74</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F216" s="5">
         <v>43240.541666666664</v>
@@ -6206,19 +6206,19 @@
     </row>
     <row r="217" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D217" s="3">
         <v>77</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F217" s="5">
         <v>43240.625</v>
@@ -6232,19 +6232,19 @@
     </row>
     <row r="218" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D218" s="3">
         <v>86</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F218" s="5">
         <v>43240.708333333336</v>
@@ -6258,19 +6258,19 @@
     </row>
     <row r="219" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D219" s="3">
         <v>85</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F219" s="5">
         <v>43240.75</v>
@@ -6284,19 +6284,19 @@
     </row>
     <row r="220" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D220" s="3">
         <v>78</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F220" s="5">
         <v>43240.791666666664</v>
@@ -6310,19 +6310,19 @@
     </row>
     <row r="221" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D221" s="3">
         <v>66</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F221" s="5">
         <v>43240.833333333336</v>
@@ -6336,19 +6336,19 @@
     </row>
     <row r="222" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D222" s="3">
         <v>66</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F222" s="5">
         <v>43240.875</v>
@@ -6362,19 +6362,19 @@
     </row>
     <row r="223" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D223" s="3">
         <v>69</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F223" s="5">
         <v>43240.916666666664</v>
@@ -6388,19 +6388,19 @@
     </row>
     <row r="224" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D224" s="3">
         <v>66</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F224" s="5">
         <v>43240.958333333336</v>
@@ -6414,19 +6414,19 @@
     </row>
     <row r="225" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D225" s="3">
         <v>70</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F225" s="5">
         <v>43241.041666666664</v>
@@ -6440,19 +6440,19 @@
     </row>
     <row r="226" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D226" s="3">
         <v>69</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F226" s="5">
         <v>43241.083333333336</v>
@@ -6466,19 +6466,19 @@
     </row>
     <row r="227" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D227" s="3">
         <v>73</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F227" s="5">
         <v>43241.125</v>
@@ -6492,19 +6492,19 @@
     </row>
     <row r="228" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D228" s="3">
         <v>72</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F228" s="5">
         <v>43241.166666666664</v>
@@ -6518,19 +6518,19 @@
     </row>
     <row r="229" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D229" s="3">
         <v>69</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F229" s="5">
         <v>43241.208333333336</v>
@@ -6544,19 +6544,19 @@
     </row>
     <row r="230" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D230" s="3">
         <v>83</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F230" s="5">
         <v>43241.291666666664</v>
@@ -6570,19 +6570,19 @@
     </row>
     <row r="231" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D231" s="3">
         <v>63</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F231" s="5">
         <v>43241.333333333336</v>
@@ -6596,19 +6596,19 @@
     </row>
     <row r="232" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D232" s="3">
         <v>65</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F232" s="5">
         <v>43241.368055555555</v>
@@ -6622,19 +6622,19 @@
     </row>
     <row r="233" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D233" s="3">
         <v>63</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F233" s="5">
         <v>43241.375</v>
@@ -6648,19 +6648,19 @@
     </row>
     <row r="234" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D234" s="3">
         <v>66</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F234" s="5">
         <v>43241.416666666664</v>
@@ -6674,19 +6674,19 @@
     </row>
     <row r="235" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D235" s="3">
         <v>67</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F235" s="5">
         <v>43241.4375</v>
@@ -6700,19 +6700,19 @@
     </row>
     <row r="236" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D236" s="3">
         <v>63</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F236" s="5">
         <v>43241.458333333336</v>
@@ -6726,19 +6726,19 @@
     </row>
     <row r="237" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D237" s="3">
         <v>64</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F237" s="5">
         <v>43241.46875</v>
@@ -6752,19 +6752,19 @@
     </row>
     <row r="238" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D238" s="3">
         <v>73</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F238" s="5">
         <v>43241.479166666664</v>
@@ -6778,19 +6778,19 @@
     </row>
     <row r="239" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D239" s="3">
         <v>70</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F239" s="5">
         <v>43241.5</v>
@@ -6804,19 +6804,19 @@
     </row>
     <row r="240" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D240" s="3">
         <v>71</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F240" s="5">
         <v>43241.541666666664</v>
@@ -6830,19 +6830,19 @@
     </row>
     <row r="241" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D241" s="3">
         <v>67</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F241" s="5">
         <v>43241.607638888891</v>
@@ -6856,19 +6856,19 @@
     </row>
     <row r="242" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D242" s="3">
         <v>65</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F242" s="5">
         <v>43241.625</v>
@@ -6882,19 +6882,19 @@
     </row>
     <row r="243" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D243" s="3">
         <v>87</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F243" s="5">
         <v>43241.708333333336</v>
@@ -6908,19 +6908,19 @@
     </row>
     <row r="244" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D244" s="3">
         <v>85</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F244" s="5">
         <v>43241.791666666664</v>
@@ -6934,19 +6934,19 @@
     </row>
     <row r="245" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F245" s="5">
         <v>43237.604166666664</v>
@@ -6960,19 +6960,19 @@
     </row>
     <row r="246" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F246" s="5">
         <v>43237.708333333336</v>
@@ -6986,19 +6986,19 @@
     </row>
     <row r="247" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F247" s="5">
         <v>43237.791666666664</v>
@@ -7012,19 +7012,19 @@
     </row>
     <row r="248" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F248" s="5">
         <v>43237.958333333336</v>
@@ -7038,19 +7038,19 @@
     </row>
     <row r="249" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F249" s="5">
         <v>43238.291666666664</v>
@@ -7064,19 +7064,19 @@
     </row>
     <row r="250" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F250" s="5">
         <v>43238.458333333336</v>
@@ -7090,19 +7090,19 @@
     </row>
     <row r="251" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F251" s="5">
         <v>43238.625</v>
@@ -7116,19 +7116,19 @@
     </row>
     <row r="252" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F252" s="5">
         <v>43238.791666666664</v>
@@ -7142,19 +7142,19 @@
     </row>
     <row r="253" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F253" s="5">
         <v>43239.083333333336</v>
@@ -7168,19 +7168,19 @@
     </row>
     <row r="254" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F254" s="5">
         <v>43240.291666666664</v>
@@ -7194,19 +7194,19 @@
     </row>
     <row r="255" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F255" s="5">
         <v>43240.458333333336</v>
@@ -7220,19 +7220,19 @@
     </row>
     <row r="256" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F256" s="5">
         <v>43241.291666666664</v>
@@ -7246,19 +7246,19 @@
     </row>
     <row r="257" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F257" s="5">
         <v>43241.625</v>

--- a/project_db_test_publish.xlsx
+++ b/project_db_test_publish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir levi\PycharmProjects\CDSS-Mini-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4702486-483C-466E-A250-93A493EB13A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA983E73-E3F3-41D0-86C2-7B682F036E58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/project_db_test_publish.xlsx
+++ b/project_db_test_publish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir levi\PycharmProjects\CDSS-Mini-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA983E73-E3F3-41D0-86C2-7B682F036E58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF794F6B-A333-484C-B27D-114E1A864F75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="804" windowWidth="7368" windowHeight="5076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="46">
   <si>
     <t>Value</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Yonathan</t>
   </si>
   <si>
-    <t>LOINC-NUM</t>
-  </si>
-  <si>
     <t>30313-1</t>
   </si>
   <si>
@@ -166,6 +163,12 @@
   </si>
   <si>
     <t>Transaction_time</t>
+  </si>
+  <si>
+    <t>LOINC_NUM</t>
+  </si>
+  <si>
+    <t>deleted</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -230,9 +233,6 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -576,7 +576,7 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -594,13 +594,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -609,12 +609,14 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -624,7 +626,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>4500</v>
@@ -638,7 +640,9 @@
       <c r="G2" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -648,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>4450</v>
@@ -662,7 +666,9 @@
       <c r="G3" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
@@ -674,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>5500</v>
@@ -688,7 +694,9 @@
       <c r="G4" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
@@ -700,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>5000</v>
@@ -714,7 +722,9 @@
       <c r="G5" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
@@ -726,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
         <v>5500</v>
@@ -740,7 +750,9 @@
       <c r="G6" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
@@ -752,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>4400</v>
@@ -766,7 +778,9 @@
       <c r="G7" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
@@ -778,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>4500</v>
@@ -792,7 +806,9 @@
       <c r="G8" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
@@ -804,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>4000</v>
@@ -818,7 +834,9 @@
       <c r="G9" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
@@ -830,7 +848,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>5400</v>
@@ -844,7 +862,9 @@
       <c r="G10" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
@@ -856,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>440</v>
@@ -870,7 +890,9 @@
       <c r="G11" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
@@ -882,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
@@ -896,7 +918,9 @@
       <c r="G12" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
@@ -908,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3">
         <v>8.5</v>
@@ -922,7 +946,9 @@
       <c r="G13" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -934,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3">
         <v>9.8000001907348597</v>
@@ -948,7 +974,9 @@
       <c r="G14" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
@@ -960,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
@@ -974,7 +1002,9 @@
       <c r="G15" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
@@ -986,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3">
         <v>8.5</v>
@@ -1000,7 +1030,9 @@
       <c r="G16" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
@@ -1012,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3">
         <v>9.8000001907348597</v>
@@ -1026,7 +1058,9 @@
       <c r="G17" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
@@ -1038,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3">
         <v>127</v>
@@ -1052,7 +1086,9 @@
       <c r="G18" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
@@ -1064,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3">
         <v>175</v>
@@ -1078,7 +1114,9 @@
       <c r="G19" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
@@ -1090,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3">
         <v>198</v>
@@ -1104,7 +1142,9 @@
       <c r="G20" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
@@ -1116,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3">
         <v>220</v>
@@ -1130,7 +1170,9 @@
       <c r="G21" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
@@ -1142,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3">
         <v>156</v>
@@ -1156,7 +1198,9 @@
       <c r="G22" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
@@ -1168,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3">
         <v>135</v>
@@ -1182,7 +1226,9 @@
       <c r="G23" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
@@ -1194,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3">
         <v>110</v>
@@ -1208,7 +1254,9 @@
       <c r="G24" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
@@ -1220,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3">
         <v>119</v>
@@ -1234,7 +1282,9 @@
       <c r="G25" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
@@ -1246,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3">
         <v>93</v>
@@ -1260,7 +1310,9 @@
       <c r="G26" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
@@ -1272,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3">
         <v>123</v>
@@ -1286,7 +1338,9 @@
       <c r="G27" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
@@ -1298,7 +1352,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3">
         <v>111</v>
@@ -1312,7 +1366,9 @@
       <c r="G28" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
@@ -1324,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3">
         <v>100</v>
@@ -1338,7 +1394,9 @@
       <c r="G29" s="5">
         <v>43243.583333333336</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
@@ -1350,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3">
         <v>85</v>
@@ -1364,7 +1422,9 @@
       <c r="G30" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
@@ -1376,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3">
         <v>78</v>
@@ -1390,7 +1450,9 @@
       <c r="G31" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
@@ -1402,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3">
         <v>67</v>
@@ -1416,7 +1478,9 @@
       <c r="G32" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
@@ -1428,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3">
         <v>99</v>
@@ -1442,7 +1506,9 @@
       <c r="G33" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
@@ -1454,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
         <v>110</v>
@@ -1468,7 +1534,9 @@
       <c r="G34" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
@@ -1480,7 +1548,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3">
         <v>104</v>
@@ -1494,7 +1562,9 @@
       <c r="G35" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
@@ -1506,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3">
         <v>117</v>
@@ -1520,7 +1590,9 @@
       <c r="G36" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
@@ -1532,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3">
         <v>115</v>
@@ -1546,7 +1618,9 @@
       <c r="G37" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
@@ -1558,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3">
         <v>121</v>
@@ -1572,7 +1646,9 @@
       <c r="G38" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
@@ -1584,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3">
         <v>118</v>
@@ -1598,7 +1674,9 @@
       <c r="G39" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
@@ -1610,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3">
         <v>117</v>
@@ -1624,7 +1702,9 @@
       <c r="G40" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
@@ -1636,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3">
         <v>127</v>
@@ -1650,7 +1730,9 @@
       <c r="G41" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
@@ -1662,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="3">
         <v>97</v>
@@ -1676,7 +1758,9 @@
       <c r="G42" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
@@ -1688,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3">
         <v>119</v>
@@ -1702,7 +1786,9 @@
       <c r="G43" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
@@ -1714,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="3">
         <v>98</v>
@@ -1728,7 +1814,9 @@
       <c r="G44" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
@@ -1740,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>14</v>
@@ -1754,7 +1842,9 @@
       <c r="G45" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
@@ -1766,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
@@ -1780,7 +1870,9 @@
       <c r="G46" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
@@ -1792,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>15</v>
@@ -1806,7 +1898,9 @@
       <c r="G47" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
@@ -1818,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>16</v>
@@ -1832,7 +1926,9 @@
       <c r="G48" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
@@ -1844,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>16</v>
@@ -1858,7 +1954,9 @@
       <c r="G49" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
@@ -1870,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>16</v>
@@ -1884,7 +1982,9 @@
       <c r="G50" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
@@ -1896,7 +1996,7 @@
         <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>16</v>
@@ -1910,7 +2010,9 @@
       <c r="G51" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
@@ -1922,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>16</v>
@@ -1936,7 +2038,9 @@
       <c r="G52" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
@@ -1948,7 +2052,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
@@ -1962,7 +2066,9 @@
       <c r="G53" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
@@ -1974,7 +2080,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -1988,7 +2094,9 @@
       <c r="G54" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
@@ -2000,7 +2108,7 @@
         <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>15</v>
@@ -2014,7 +2122,9 @@
       <c r="G55" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
@@ -2026,7 +2136,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -2040,7 +2150,9 @@
       <c r="G56" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H56" s="5"/>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
@@ -2052,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -2066,7 +2178,9 @@
       <c r="G57" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
@@ -2078,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -2092,7 +2206,9 @@
       <c r="G58" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
@@ -2104,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>15</v>
@@ -2118,7 +2234,9 @@
       <c r="G59" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H59" s="5"/>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
@@ -2130,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -2144,7 +2262,9 @@
       <c r="G60" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H60" s="5"/>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
@@ -2156,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
@@ -2170,7 +2290,9 @@
       <c r="G61" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H61" s="5"/>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
@@ -2182,7 +2304,7 @@
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="1">
         <v>120</v>
@@ -2196,7 +2318,9 @@
       <c r="G62" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H62" s="5"/>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
@@ -2208,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="1">
         <v>170</v>
@@ -2222,7 +2346,9 @@
       <c r="G63" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H63" s="5"/>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
@@ -2234,7 +2360,7 @@
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="1">
         <v>70</v>
@@ -2248,7 +2374,9 @@
       <c r="G64" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H64" s="5"/>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
@@ -2260,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="1">
         <v>170</v>
@@ -2274,7 +2402,9 @@
       <c r="G65" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H65" s="5"/>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
@@ -2286,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="1">
         <v>17</v>
@@ -2300,7 +2430,9 @@
       <c r="G66" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
@@ -2312,7 +2444,7 @@
         <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="1">
         <v>170</v>
@@ -2326,7 +2458,9 @@
       <c r="G67" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H67" s="5"/>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
@@ -2338,7 +2472,7 @@
         <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="1">
         <v>110</v>
@@ -2352,7 +2486,9 @@
       <c r="G68" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H68" s="5"/>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
@@ -2364,7 +2500,7 @@
         <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1">
         <v>120</v>
@@ -2378,7 +2514,9 @@
       <c r="G69" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H69" s="5"/>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
@@ -2390,7 +2528,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="1">
         <v>128</v>
@@ -2404,7 +2542,9 @@
       <c r="G70" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H70" s="5"/>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
@@ -2416,7 +2556,7 @@
         <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="1">
         <v>178</v>
@@ -2430,7 +2570,9 @@
       <c r="G71" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H71" s="5"/>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
@@ -2442,7 +2584,7 @@
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" s="1">
         <v>79</v>
@@ -2456,7 +2598,9 @@
       <c r="G72" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H72" s="5"/>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
@@ -2468,7 +2612,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1">
         <v>78</v>
@@ -2482,7 +2626,9 @@
       <c r="G73" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H73" s="5"/>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
@@ -2494,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="3">
         <v>52</v>
@@ -2508,7 +2654,9 @@
       <c r="G74" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H74" s="5"/>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
@@ -2520,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75" s="3">
         <v>41</v>
@@ -2534,7 +2682,9 @@
       <c r="G75" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H75" s="5"/>
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
@@ -2546,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D76" s="3">
         <v>43</v>
@@ -2560,7 +2710,9 @@
       <c r="G76" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H76" s="5"/>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
@@ -2572,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" s="3">
         <v>54</v>
@@ -2586,7 +2738,9 @@
       <c r="G77" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H77" s="5"/>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
@@ -2598,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" s="3">
         <v>45</v>
@@ -2612,7 +2766,9 @@
       <c r="G78" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H78" s="5"/>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
@@ -2624,7 +2780,7 @@
         <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79" s="3">
         <v>38</v>
@@ -2638,7 +2794,9 @@
       <c r="G79" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H79" s="5"/>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
@@ -2650,7 +2808,7 @@
         <v>26</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80" s="3">
         <v>35</v>
@@ -2664,7 +2822,9 @@
       <c r="G80" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H80" s="5"/>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
@@ -2676,7 +2836,7 @@
         <v>26</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D81" s="3">
         <v>44</v>
@@ -2690,7 +2850,9 @@
       <c r="G81" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H81" s="5"/>
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
@@ -2702,7 +2864,7 @@
         <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D82" s="3">
         <v>34</v>
@@ -2716,7 +2878,9 @@
       <c r="G82" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H82" s="5"/>
+      <c r="H82" s="6">
+        <v>0</v>
+      </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
@@ -2728,7 +2892,7 @@
         <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D83" s="3">
         <v>37</v>
@@ -2742,7 +2906,9 @@
       <c r="G83" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H83" s="5"/>
+      <c r="H83" s="6">
+        <v>0</v>
+      </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
@@ -2754,7 +2920,7 @@
         <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" s="3">
         <v>371</v>
@@ -2768,7 +2934,9 @@
       <c r="G84" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H84" s="5"/>
+      <c r="H84" s="6">
+        <v>0</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
@@ -2780,7 +2948,7 @@
         <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" s="3">
         <v>322</v>
@@ -2794,7 +2962,9 @@
       <c r="G85" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H85" s="5"/>
+      <c r="H85" s="6">
+        <v>0</v>
+      </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
@@ -2806,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D86" s="3">
         <v>247</v>
@@ -2820,7 +2990,9 @@
       <c r="G86" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H86" s="5"/>
+      <c r="H86" s="6">
+        <v>0</v>
+      </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
@@ -2832,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D87" s="3">
         <v>146</v>
@@ -2846,7 +3018,9 @@
       <c r="G87" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H87" s="5"/>
+      <c r="H87" s="6">
+        <v>0</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
@@ -2858,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88" s="3">
         <v>273</v>
@@ -2872,7 +3046,9 @@
       <c r="G88" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H88" s="5"/>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
@@ -2884,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D89" s="3">
         <v>137</v>
@@ -2898,7 +3074,9 @@
       <c r="G89" s="5">
         <v>43249.416666666664</v>
       </c>
-      <c r="H89" s="5"/>
+      <c r="H89" s="6">
+        <v>0</v>
+      </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
@@ -2910,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" s="3">
         <v>138</v>
@@ -2924,7 +3102,9 @@
       <c r="G90" s="5">
         <v>43250.416666666664</v>
       </c>
-      <c r="H90" s="5"/>
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
@@ -2936,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" s="3">
         <v>135</v>
@@ -2950,7 +3130,9 @@
       <c r="G91" s="5">
         <v>43251.416666666664</v>
       </c>
-      <c r="H91" s="5"/>
+      <c r="H91" s="6">
+        <v>0</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
@@ -2962,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D92" s="3">
         <v>79</v>
@@ -2976,7 +3158,9 @@
       <c r="G92" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H92" s="5"/>
+      <c r="H92" s="6">
+        <v>0</v>
+      </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
@@ -2988,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D93" s="3">
         <v>91</v>
@@ -3002,7 +3186,9 @@
       <c r="G93" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H93" s="5"/>
+      <c r="H93" s="6">
+        <v>0</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
@@ -3014,7 +3200,7 @@
         <v>25</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" s="1">
         <v>71</v>
@@ -3028,7 +3214,9 @@
       <c r="G94" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H94" s="5"/>
+      <c r="H94" s="6">
+        <v>0</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
@@ -3040,7 +3228,7 @@
         <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="1">
         <v>8</v>
@@ -3054,7 +3242,9 @@
       <c r="G95" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H95" s="5"/>
+      <c r="H95" s="6">
+        <v>0</v>
+      </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
@@ -3066,7 +3256,7 @@
         <v>25</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="1">
         <v>8.5</v>
@@ -3080,7 +3270,9 @@
       <c r="G96" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H96" s="5"/>
+      <c r="H96" s="6">
+        <v>0</v>
+      </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
@@ -3092,7 +3284,7 @@
         <v>25</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" s="1">
         <v>8.25</v>
@@ -3106,7 +3298,9 @@
       <c r="G97" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H97" s="5"/>
+      <c r="H97" s="6">
+        <v>0</v>
+      </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
@@ -3118,7 +3312,7 @@
         <v>25</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1">
         <v>7.25</v>
@@ -3132,7 +3326,9 @@
       <c r="G98" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H98" s="5"/>
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
@@ -3144,7 +3340,7 @@
         <v>25</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="1">
         <v>7.1</v>
@@ -3158,7 +3354,9 @@
       <c r="G99" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H99" s="5"/>
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
@@ -3170,7 +3368,7 @@
         <v>25</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="1">
         <v>17</v>
@@ -3184,7 +3382,9 @@
       <c r="G100" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H100" s="5"/>
+      <c r="H100" s="6">
+        <v>0</v>
+      </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
@@ -3196,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="1">
         <v>7</v>
@@ -3210,7 +3410,9 @@
       <c r="G101" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H101" s="5"/>
+      <c r="H101" s="6">
+        <v>0</v>
+      </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
@@ -3222,7 +3424,7 @@
         <v>25</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1">
         <v>7.2</v>
@@ -3236,7 +3438,9 @@
       <c r="G102" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H102" s="5"/>
+      <c r="H102" s="6">
+        <v>0</v>
+      </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
@@ -3248,7 +3452,7 @@
         <v>25</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103" s="1">
         <v>38</v>
@@ -3262,7 +3466,9 @@
       <c r="G103" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H103" s="5"/>
+      <c r="H103" s="6">
+        <v>0</v>
+      </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
@@ -3274,7 +3480,7 @@
         <v>25</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="1">
         <v>38</v>
@@ -3288,7 +3494,9 @@
       <c r="G104" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H104" s="5"/>
+      <c r="H104" s="6">
+        <v>0</v>
+      </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
@@ -3300,7 +3508,7 @@
         <v>25</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="1">
         <v>37.799999999999997</v>
@@ -3314,7 +3522,9 @@
       <c r="G105" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H105" s="5"/>
+      <c r="H105" s="6">
+        <v>0</v>
+      </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
@@ -3326,7 +3536,7 @@
         <v>26</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106" s="1">
         <v>36.799999999999997</v>
@@ -3340,7 +3550,9 @@
       <c r="G106" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H106" s="5"/>
+      <c r="H106" s="6">
+        <v>0</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
@@ -3352,7 +3564,7 @@
         <v>25</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" s="1">
         <v>37.799999999999997</v>
@@ -3366,7 +3578,9 @@
       <c r="G107" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H107" s="5"/>
+      <c r="H107" s="6">
+        <v>0</v>
+      </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
@@ -3378,7 +3592,7 @@
         <v>26</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" s="1">
         <v>38.700000000000003</v>
@@ -3392,7 +3606,9 @@
       <c r="G108" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H108" s="5"/>
+      <c r="H108" s="6">
+        <v>0</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
@@ -3404,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D109" s="1">
         <v>37.799999999999997</v>
@@ -3418,7 +3634,9 @@
       <c r="G109" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H109" s="5"/>
+      <c r="H109" s="6">
+        <v>0</v>
+      </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
@@ -3430,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="1">
         <v>37.799999999999997</v>
@@ -3444,7 +3662,9 @@
       <c r="G110" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H110" s="5"/>
+      <c r="H110" s="6">
+        <v>0</v>
+      </c>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
@@ -3456,7 +3676,7 @@
         <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D111" s="1">
         <v>38</v>
@@ -3470,7 +3690,9 @@
       <c r="G111" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H111" s="5"/>
+      <c r="H111" s="6">
+        <v>0</v>
+      </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
@@ -3482,7 +3704,7 @@
         <v>26</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112" s="1">
         <v>38</v>
@@ -3496,7 +3718,9 @@
       <c r="G112" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H112" s="5"/>
+      <c r="H112" s="6">
+        <v>0</v>
+      </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
@@ -3508,7 +3732,7 @@
         <v>25</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113" s="1">
         <v>37.799999999999997</v>
@@ -3522,7 +3746,9 @@
       <c r="G113" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H113" s="5"/>
+      <c r="H113" s="6">
+        <v>0</v>
+      </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
@@ -3534,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" s="1">
         <v>37.799999999999997</v>
@@ -3548,7 +3774,9 @@
       <c r="G114" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H114" s="5"/>
+      <c r="H114" s="6">
+        <v>0</v>
+      </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
@@ -3560,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" s="1">
         <v>37.799999999999997</v>
@@ -3574,7 +3802,9 @@
       <c r="G115" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H115" s="5"/>
+      <c r="H115" s="6">
+        <v>0</v>
+      </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
@@ -3586,7 +3816,7 @@
         <v>25</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" s="1">
         <v>38.700000000000003</v>
@@ -3600,7 +3830,9 @@
       <c r="G116" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H116" s="5"/>
+      <c r="H116" s="6">
+        <v>0</v>
+      </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
@@ -3612,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="1">
         <v>38.700000000000003</v>
@@ -3626,7 +3858,9 @@
       <c r="G117" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H117" s="5"/>
+      <c r="H117" s="6">
+        <v>0</v>
+      </c>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
@@ -3638,7 +3872,7 @@
         <v>26</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" s="1">
         <v>39</v>
@@ -3652,7 +3886,9 @@
       <c r="G118" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H118" s="5"/>
+      <c r="H118" s="6">
+        <v>0</v>
+      </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
@@ -3664,7 +3900,7 @@
         <v>26</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" s="1">
         <v>37.5</v>
@@ -3678,7 +3914,9 @@
       <c r="G119" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H119" s="5"/>
+      <c r="H119" s="6">
+        <v>0</v>
+      </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
@@ -3690,7 +3928,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" s="1">
         <v>38.700000000000003</v>
@@ -3704,7 +3942,9 @@
       <c r="G120" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H120" s="5"/>
+      <c r="H120" s="6">
+        <v>0</v>
+      </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
@@ -3716,7 +3956,7 @@
         <v>26</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" s="1">
         <v>38.5</v>
@@ -3730,7 +3970,9 @@
       <c r="G121" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H121" s="5"/>
+      <c r="H121" s="6">
+        <v>0</v>
+      </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
@@ -3742,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D122" s="1">
         <v>38.700000000000003</v>
@@ -3756,7 +3998,9 @@
       <c r="G122" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H122" s="5"/>
+      <c r="H122" s="6">
+        <v>0</v>
+      </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
@@ -3768,7 +4012,7 @@
         <v>25</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" s="1">
         <v>38.700000000000003</v>
@@ -3782,7 +4026,9 @@
       <c r="G123" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H123" s="5"/>
+      <c r="H123" s="6">
+        <v>0</v>
+      </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
@@ -3794,7 +4040,7 @@
         <v>26</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" s="1">
         <v>38.700000000000003</v>
@@ -3808,7 +4054,9 @@
       <c r="G124" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H124" s="5"/>
+      <c r="H124" s="6">
+        <v>0</v>
+      </c>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
@@ -3820,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D125" s="1">
         <v>38.700000000000003</v>
@@ -3834,7 +4082,9 @@
       <c r="G125" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H125" s="5"/>
+      <c r="H125" s="6">
+        <v>0</v>
+      </c>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
@@ -3846,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D126" s="1">
         <v>38.700000000000003</v>
@@ -3860,7 +4110,9 @@
       <c r="G126" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H126" s="5"/>
+      <c r="H126" s="6">
+        <v>0</v>
+      </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
@@ -3872,7 +4124,7 @@
         <v>26</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" s="1">
         <v>37.799999999999997</v>
@@ -3886,7 +4138,9 @@
       <c r="G127" s="5">
         <v>43242.333333333336</v>
       </c>
-      <c r="H127" s="5"/>
+      <c r="H127" s="6">
+        <v>0</v>
+      </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
@@ -3898,7 +4152,7 @@
         <v>26</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" s="1">
         <v>38</v>
@@ -3912,7 +4166,9 @@
       <c r="G128" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H128" s="5"/>
+      <c r="H128" s="6">
+        <v>0</v>
+      </c>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
@@ -3924,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" s="1">
         <v>37</v>
@@ -3938,7 +4194,9 @@
       <c r="G129" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H129" s="5"/>
+      <c r="H129" s="6">
+        <v>0</v>
+      </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
@@ -3950,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" s="1">
         <v>37</v>
@@ -3964,7 +4222,9 @@
       <c r="G130" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H130" s="5"/>
+      <c r="H130" s="6">
+        <v>0</v>
+      </c>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
@@ -3976,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D131" s="3">
         <v>91</v>
@@ -3990,7 +4250,9 @@
       <c r="G131" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H131" s="5"/>
+      <c r="H131" s="6">
+        <v>0</v>
+      </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
@@ -4002,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D132" s="3">
         <v>92</v>
@@ -4016,7 +4278,9 @@
       <c r="G132" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H132" s="5"/>
+      <c r="H132" s="6">
+        <v>0</v>
+      </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
@@ -4028,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D133" s="3">
         <v>93</v>
@@ -4042,7 +4306,9 @@
       <c r="G133" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H133" s="5"/>
+      <c r="H133" s="6">
+        <v>0</v>
+      </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
@@ -4054,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D134" s="3">
         <v>94</v>
@@ -4068,7 +4334,9 @@
       <c r="G134" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H134" s="5"/>
+      <c r="H134" s="6">
+        <v>0</v>
+      </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
@@ -4080,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D135" s="3">
         <v>95</v>
@@ -4094,7 +4362,9 @@
       <c r="G135" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H135" s="5"/>
+      <c r="H135" s="6">
+        <v>0</v>
+      </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
@@ -4106,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D136" s="3">
         <v>96</v>
@@ -4120,7 +4390,9 @@
       <c r="G136" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H136" s="5"/>
+      <c r="H136" s="6">
+        <v>0</v>
+      </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
@@ -4132,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D137" s="3">
         <v>97</v>
@@ -4146,7 +4418,9 @@
       <c r="G137" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H137" s="5"/>
+      <c r="H137" s="6">
+        <v>0</v>
+      </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
@@ -4158,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D138" s="3">
         <v>98</v>
@@ -4172,7 +4446,9 @@
       <c r="G138" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H138" s="5"/>
+      <c r="H138" s="6">
+        <v>0</v>
+      </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
@@ -4184,7 +4460,7 @@
         <v>26</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D139" s="3">
         <v>90</v>
@@ -4198,7 +4474,9 @@
       <c r="G139" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H139" s="5"/>
+      <c r="H139" s="6">
+        <v>0</v>
+      </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
@@ -4210,7 +4488,7 @@
         <v>26</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D140" s="3">
         <v>90</v>
@@ -4224,7 +4502,9 @@
       <c r="G140" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H140" s="5"/>
+      <c r="H140" s="6">
+        <v>0</v>
+      </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
@@ -4236,7 +4516,7 @@
         <v>26</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141" s="3">
         <v>91</v>
@@ -4250,7 +4530,9 @@
       <c r="G141" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H141" s="5"/>
+      <c r="H141" s="6">
+        <v>0</v>
+      </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
@@ -4262,7 +4544,7 @@
         <v>26</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D142" s="3">
         <v>90</v>
@@ -4276,7 +4558,9 @@
       <c r="G142" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H142" s="5"/>
+      <c r="H142" s="6">
+        <v>0</v>
+      </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
@@ -4288,7 +4572,7 @@
         <v>26</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D143" s="3">
         <v>90</v>
@@ -4302,7 +4586,9 @@
       <c r="G143" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H143" s="5"/>
+      <c r="H143" s="6">
+        <v>0</v>
+      </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
@@ -4314,7 +4600,7 @@
         <v>26</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D144" s="3">
         <v>90</v>
@@ -4328,7 +4614,9 @@
       <c r="G144" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H144" s="5"/>
+      <c r="H144" s="6">
+        <v>0</v>
+      </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
@@ -4340,7 +4628,7 @@
         <v>26</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D145" s="3">
         <v>90</v>
@@ -4354,7 +4642,9 @@
       <c r="G145" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H145" s="5"/>
+      <c r="H145" s="6">
+        <v>0</v>
+      </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
@@ -4366,7 +4656,7 @@
         <v>26</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D146" s="3">
         <v>90</v>
@@ -4380,7 +4670,9 @@
       <c r="G146" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H146" s="5"/>
+      <c r="H146" s="6">
+        <v>0</v>
+      </c>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
@@ -4392,7 +4684,7 @@
         <v>26</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D147" s="3">
         <v>90</v>
@@ -4406,7 +4698,9 @@
       <c r="G147" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H147" s="5"/>
+      <c r="H147" s="6">
+        <v>0</v>
+      </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
@@ -4418,7 +4712,7 @@
         <v>26</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D148" s="3">
         <v>89</v>
@@ -4432,7 +4726,9 @@
       <c r="G148" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H148" s="5"/>
+      <c r="H148" s="6">
+        <v>0</v>
+      </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
@@ -4444,7 +4740,7 @@
         <v>26</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D149" s="3">
         <v>90</v>
@@ -4458,7 +4754,9 @@
       <c r="G149" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H149" s="5"/>
+      <c r="H149" s="6">
+        <v>0</v>
+      </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
@@ -4470,7 +4768,7 @@
         <v>25</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D150" s="3">
         <v>61</v>
@@ -4484,7 +4782,9 @@
       <c r="G150" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H150" s="5"/>
+      <c r="H150" s="6">
+        <v>0</v>
+      </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
@@ -4496,7 +4796,7 @@
         <v>25</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D151" s="3">
         <v>64</v>
@@ -4510,7 +4810,9 @@
       <c r="G151" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H151" s="5"/>
+      <c r="H151" s="6">
+        <v>0</v>
+      </c>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
@@ -4522,7 +4824,7 @@
         <v>25</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D152" s="3">
         <v>66</v>
@@ -4536,7 +4838,9 @@
       <c r="G152" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H152" s="5"/>
+      <c r="H152" s="6">
+        <v>0</v>
+      </c>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
@@ -4548,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D153" s="3">
         <v>64</v>
@@ -4562,7 +4866,9 @@
       <c r="G153" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H153" s="5"/>
+      <c r="H153" s="6">
+        <v>0</v>
+      </c>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
@@ -4574,7 +4880,7 @@
         <v>25</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D154" s="3">
         <v>65</v>
@@ -4588,7 +4894,9 @@
       <c r="G154" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H154" s="5"/>
+      <c r="H154" s="6">
+        <v>0</v>
+      </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
@@ -4600,7 +4908,7 @@
         <v>25</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D155" s="3">
         <v>64</v>
@@ -4614,7 +4922,9 @@
       <c r="G155" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H155" s="5"/>
+      <c r="H155" s="6">
+        <v>0</v>
+      </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
@@ -4626,7 +4936,7 @@
         <v>25</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D156" s="3">
         <v>64</v>
@@ -4640,7 +4950,9 @@
       <c r="G156" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H156" s="5"/>
+      <c r="H156" s="6">
+        <v>0</v>
+      </c>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
@@ -4652,7 +4964,7 @@
         <v>25</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D157" s="3">
         <v>67</v>
@@ -4666,7 +4978,9 @@
       <c r="G157" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H157" s="5"/>
+      <c r="H157" s="6">
+        <v>0</v>
+      </c>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
@@ -4678,7 +4992,7 @@
         <v>25</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D158" s="3">
         <v>63</v>
@@ -4692,7 +5006,9 @@
       <c r="G158" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H158" s="5"/>
+      <c r="H158" s="6">
+        <v>0</v>
+      </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
@@ -4704,7 +5020,7 @@
         <v>25</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D159" s="3">
         <v>63</v>
@@ -4718,7 +5034,9 @@
       <c r="G159" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H159" s="5"/>
+      <c r="H159" s="6">
+        <v>0</v>
+      </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
@@ -4730,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D160" s="3">
         <v>69</v>
@@ -4744,7 +5062,9 @@
       <c r="G160" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H160" s="5"/>
+      <c r="H160" s="6">
+        <v>0</v>
+      </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
@@ -4756,7 +5076,7 @@
         <v>25</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D161" s="3">
         <v>74</v>
@@ -4770,7 +5090,9 @@
       <c r="G161" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H161" s="5"/>
+      <c r="H161" s="6">
+        <v>0</v>
+      </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
@@ -4782,7 +5104,7 @@
         <v>25</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D162" s="3">
         <v>75</v>
@@ -4796,7 +5118,9 @@
       <c r="G162" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H162" s="5"/>
+      <c r="H162" s="6">
+        <v>0</v>
+      </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
@@ -4808,7 +5132,7 @@
         <v>25</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D163" s="3">
         <v>67</v>
@@ -4822,7 +5146,9 @@
       <c r="G163" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H163" s="5"/>
+      <c r="H163" s="6">
+        <v>0</v>
+      </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
@@ -4834,7 +5160,7 @@
         <v>25</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D164" s="3">
         <v>67</v>
@@ -4848,7 +5174,9 @@
       <c r="G164" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H164" s="5"/>
+      <c r="H164" s="6">
+        <v>0</v>
+      </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
@@ -4860,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D165" s="3">
         <v>70</v>
@@ -4874,7 +5202,9 @@
       <c r="G165" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H165" s="5"/>
+      <c r="H165" s="6">
+        <v>0</v>
+      </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
@@ -4886,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D166" s="3">
         <v>67</v>
@@ -4900,7 +5230,9 @@
       <c r="G166" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H166" s="5"/>
+      <c r="H166" s="6">
+        <v>0</v>
+      </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
@@ -4912,7 +5244,7 @@
         <v>2</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D167" s="3">
         <v>69</v>
@@ -4926,7 +5258,9 @@
       <c r="G167" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H167" s="5"/>
+      <c r="H167" s="6">
+        <v>0</v>
+      </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
@@ -4938,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D168" s="3">
         <v>67</v>
@@ -4952,7 +5286,9 @@
       <c r="G168" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H168" s="5"/>
+      <c r="H168" s="6">
+        <v>0</v>
+      </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
@@ -4964,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D169" s="3">
         <v>64</v>
@@ -4978,7 +5314,9 @@
       <c r="G169" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H169" s="5"/>
+      <c r="H169" s="6">
+        <v>0</v>
+      </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
@@ -4990,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D170" s="3">
         <v>63</v>
@@ -5004,7 +5342,9 @@
       <c r="G170" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H170" s="5"/>
+      <c r="H170" s="6">
+        <v>0</v>
+      </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
@@ -5016,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D171" s="3">
         <v>69</v>
@@ -5030,7 +5370,9 @@
       <c r="G171" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H171" s="5"/>
+      <c r="H171" s="6">
+        <v>0</v>
+      </c>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
@@ -5042,7 +5384,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D172" s="3">
         <v>66</v>
@@ -5056,7 +5398,9 @@
       <c r="G172" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H172" s="5"/>
+      <c r="H172" s="6">
+        <v>0</v>
+      </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
@@ -5068,7 +5412,7 @@
         <v>2</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D173" s="3">
         <v>74</v>
@@ -5082,7 +5426,9 @@
       <c r="G173" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H173" s="5"/>
+      <c r="H173" s="6">
+        <v>0</v>
+      </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
@@ -5094,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D174" s="3">
         <v>70</v>
@@ -5108,7 +5454,9 @@
       <c r="G174" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H174" s="5"/>
+      <c r="H174" s="6">
+        <v>0</v>
+      </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
@@ -5120,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D175" s="3">
         <v>62</v>
@@ -5134,7 +5482,9 @@
       <c r="G175" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H175" s="5"/>
+      <c r="H175" s="6">
+        <v>0</v>
+      </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
@@ -5146,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D176" s="3">
         <v>62</v>
@@ -5160,7 +5510,9 @@
       <c r="G176" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H176" s="5"/>
+      <c r="H176" s="6">
+        <v>0</v>
+      </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
@@ -5172,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D177" s="3">
         <v>61</v>
@@ -5186,7 +5538,9 @@
       <c r="G177" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H177" s="5"/>
+      <c r="H177" s="6">
+        <v>0</v>
+      </c>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
@@ -5198,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D178" s="3">
         <v>75</v>
@@ -5212,7 +5566,9 @@
       <c r="G178" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H178" s="5"/>
+      <c r="H178" s="6">
+        <v>0</v>
+      </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
@@ -5224,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D179" s="3">
         <v>69</v>
@@ -5238,7 +5594,9 @@
       <c r="G179" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H179" s="5"/>
+      <c r="H179" s="6">
+        <v>0</v>
+      </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
@@ -5250,7 +5608,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D180" s="3">
         <v>65</v>
@@ -5264,7 +5622,9 @@
       <c r="G180" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H180" s="5"/>
+      <c r="H180" s="6">
+        <v>0</v>
+      </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
@@ -5276,7 +5636,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D181" s="3">
         <v>64</v>
@@ -5290,7 +5650,9 @@
       <c r="G181" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H181" s="5"/>
+      <c r="H181" s="6">
+        <v>0</v>
+      </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
@@ -5302,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D182" s="3">
         <v>65</v>
@@ -5316,7 +5678,9 @@
       <c r="G182" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H182" s="5"/>
+      <c r="H182" s="6">
+        <v>0</v>
+      </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
@@ -5328,7 +5692,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D183" s="3">
         <v>64</v>
@@ -5342,7 +5706,9 @@
       <c r="G183" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H183" s="5"/>
+      <c r="H183" s="6">
+        <v>0</v>
+      </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
@@ -5354,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D184" s="3">
         <v>64</v>
@@ -5368,7 +5734,9 @@
       <c r="G184" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H184" s="5"/>
+      <c r="H184" s="6">
+        <v>0</v>
+      </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
@@ -5380,7 +5748,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D185" s="3">
         <v>65</v>
@@ -5394,7 +5762,9 @@
       <c r="G185" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H185" s="5"/>
+      <c r="H185" s="6">
+        <v>0</v>
+      </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
@@ -5406,7 +5776,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D186" s="3">
         <v>79</v>
@@ -5420,7 +5790,9 @@
       <c r="G186" s="5">
         <v>43243.416666666664</v>
       </c>
-      <c r="H186" s="5"/>
+      <c r="H186" s="6">
+        <v>0</v>
+      </c>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
@@ -5432,7 +5804,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D187" s="3">
         <v>62</v>
@@ -5446,7 +5818,9 @@
       <c r="G187" s="5">
         <v>43244.416666666664</v>
       </c>
-      <c r="H187" s="5"/>
+      <c r="H187" s="6">
+        <v>0</v>
+      </c>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
@@ -5458,7 +5832,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D188" s="3">
         <v>63</v>
@@ -5472,7 +5846,9 @@
       <c r="G188" s="5">
         <v>43245.416666666664</v>
       </c>
-      <c r="H188" s="5"/>
+      <c r="H188" s="6">
+        <v>0</v>
+      </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
@@ -5484,7 +5860,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D189" s="3">
         <v>66</v>
@@ -5498,7 +5874,9 @@
       <c r="G189" s="5">
         <v>43246.416666666664</v>
       </c>
-      <c r="H189" s="5"/>
+      <c r="H189" s="6">
+        <v>0</v>
+      </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
@@ -5510,7 +5888,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D190" s="3">
         <v>75</v>
@@ -5524,7 +5902,9 @@
       <c r="G190" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H190" s="5"/>
+      <c r="H190" s="6">
+        <v>0</v>
+      </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
@@ -5536,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D191" s="3">
         <v>72</v>
@@ -5550,7 +5930,9 @@
       <c r="G191" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H191" s="5"/>
+      <c r="H191" s="6">
+        <v>0</v>
+      </c>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
@@ -5562,7 +5944,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D192" s="3">
         <v>70</v>
@@ -5576,7 +5958,9 @@
       <c r="G192" s="5">
         <v>43249.416666666664</v>
       </c>
-      <c r="H192" s="5"/>
+      <c r="H192" s="6">
+        <v>0</v>
+      </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
@@ -5588,7 +5972,7 @@
         <v>9</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D193" s="3">
         <v>87</v>
@@ -5602,7 +5986,9 @@
       <c r="G193" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H193" s="5"/>
+      <c r="H193" s="6">
+        <v>0</v>
+      </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
@@ -5614,7 +6000,7 @@
         <v>9</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D194" s="3">
         <v>88</v>
@@ -5628,7 +6014,9 @@
       <c r="G194" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H194" s="5"/>
+      <c r="H194" s="6">
+        <v>0</v>
+      </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
@@ -5640,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D195" s="3">
         <v>86</v>
@@ -5654,7 +6042,9 @@
       <c r="G195" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H195" s="5"/>
+      <c r="H195" s="6">
+        <v>0</v>
+      </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
@@ -5666,7 +6056,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D196" s="3">
         <v>76</v>
@@ -5680,7 +6070,9 @@
       <c r="G196" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H196" s="5"/>
+      <c r="H196" s="6">
+        <v>0</v>
+      </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
@@ -5692,7 +6084,7 @@
         <v>9</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D197" s="3">
         <v>81</v>
@@ -5706,7 +6098,9 @@
       <c r="G197" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H197" s="5"/>
+      <c r="H197" s="6">
+        <v>0</v>
+      </c>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
@@ -5718,7 +6112,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D198" s="3">
         <v>86</v>
@@ -5732,7 +6126,9 @@
       <c r="G198" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H198" s="5"/>
+      <c r="H198" s="6">
+        <v>0</v>
+      </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
@@ -5744,7 +6140,7 @@
         <v>9</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D199" s="3">
         <v>88</v>
@@ -5758,7 +6154,9 @@
       <c r="G199" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H199" s="5"/>
+      <c r="H199" s="6">
+        <v>0</v>
+      </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
@@ -5770,7 +6168,7 @@
         <v>9</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D200" s="3">
         <v>90</v>
@@ -5784,7 +6182,9 @@
       <c r="G200" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H200" s="5"/>
+      <c r="H200" s="6">
+        <v>0</v>
+      </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
@@ -5796,7 +6196,7 @@
         <v>9</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D201" s="3">
         <v>85</v>
@@ -5810,7 +6210,9 @@
       <c r="G201" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H201" s="5"/>
+      <c r="H201" s="6">
+        <v>0</v>
+      </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
@@ -5822,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D202" s="3">
         <v>94</v>
@@ -5836,7 +6238,9 @@
       <c r="G202" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H202" s="5"/>
+      <c r="H202" s="6">
+        <v>0</v>
+      </c>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
@@ -5848,7 +6252,7 @@
         <v>13</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D203" s="3">
         <v>89</v>
@@ -5862,7 +6266,9 @@
       <c r="G203" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H203" s="5"/>
+      <c r="H203" s="6">
+        <v>0</v>
+      </c>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
@@ -5874,7 +6280,7 @@
         <v>13</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D204" s="3">
         <v>84</v>
@@ -5888,7 +6294,9 @@
       <c r="G204" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H204" s="5"/>
+      <c r="H204" s="6">
+        <v>0</v>
+      </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
@@ -5900,7 +6308,7 @@
         <v>13</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D205" s="3">
         <v>86</v>
@@ -5914,7 +6322,9 @@
       <c r="G205" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H205" s="5"/>
+      <c r="H205" s="6">
+        <v>0</v>
+      </c>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
@@ -5926,7 +6336,7 @@
         <v>13</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D206" s="3">
         <v>83</v>
@@ -5940,7 +6350,9 @@
       <c r="G206" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H206" s="5"/>
+      <c r="H206" s="6">
+        <v>0</v>
+      </c>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
     </row>
@@ -5952,7 +6364,7 @@
         <v>13</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D207" s="3">
         <v>93</v>
@@ -5966,7 +6378,9 @@
       <c r="G207" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H207" s="5"/>
+      <c r="H207" s="6">
+        <v>0</v>
+      </c>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
@@ -5978,7 +6392,7 @@
         <v>13</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D208" s="3">
         <v>89</v>
@@ -5992,7 +6406,9 @@
       <c r="G208" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H208" s="5"/>
+      <c r="H208" s="6">
+        <v>0</v>
+      </c>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
     </row>
@@ -6004,7 +6420,7 @@
         <v>13</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D209" s="3">
         <v>82</v>
@@ -6018,7 +6434,9 @@
       <c r="G209" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H209" s="5"/>
+      <c r="H209" s="6">
+        <v>0</v>
+      </c>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
@@ -6030,7 +6448,7 @@
         <v>13</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D210" s="3">
         <v>88</v>
@@ -6044,7 +6462,9 @@
       <c r="G210" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H210" s="5"/>
+      <c r="H210" s="6">
+        <v>0</v>
+      </c>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
@@ -6056,7 +6476,7 @@
         <v>13</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D211" s="3">
         <v>76</v>
@@ -6070,7 +6490,9 @@
       <c r="G211" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H211" s="5"/>
+      <c r="H211" s="6">
+        <v>0</v>
+      </c>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
     </row>
@@ -6082,7 +6504,7 @@
         <v>13</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D212" s="3">
         <v>74</v>
@@ -6096,7 +6518,9 @@
       <c r="G212" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H212" s="5"/>
+      <c r="H212" s="6">
+        <v>0</v>
+      </c>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
     </row>
@@ -6108,7 +6532,7 @@
         <v>13</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D213" s="3">
         <v>75</v>
@@ -6122,7 +6546,9 @@
       <c r="G213" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H213" s="5"/>
+      <c r="H213" s="6">
+        <v>0</v>
+      </c>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
     </row>
@@ -6134,7 +6560,7 @@
         <v>13</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D214" s="3">
         <v>74</v>
@@ -6148,7 +6574,9 @@
       <c r="G214" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H214" s="5"/>
+      <c r="H214" s="6">
+        <v>0</v>
+      </c>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
     </row>
@@ -6160,7 +6588,7 @@
         <v>13</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D215" s="3">
         <v>74</v>
@@ -6174,7 +6602,9 @@
       <c r="G215" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H215" s="5"/>
+      <c r="H215" s="6">
+        <v>0</v>
+      </c>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
     </row>
@@ -6186,7 +6616,7 @@
         <v>13</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D216" s="3">
         <v>74</v>
@@ -6200,7 +6630,9 @@
       <c r="G216" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H216" s="5"/>
+      <c r="H216" s="6">
+        <v>0</v>
+      </c>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
     </row>
@@ -6212,7 +6644,7 @@
         <v>13</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D217" s="3">
         <v>77</v>
@@ -6226,7 +6658,9 @@
       <c r="G217" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H217" s="5"/>
+      <c r="H217" s="6">
+        <v>0</v>
+      </c>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
     </row>
@@ -6238,7 +6672,7 @@
         <v>13</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D218" s="3">
         <v>86</v>
@@ -6252,7 +6686,9 @@
       <c r="G218" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H218" s="5"/>
+      <c r="H218" s="6">
+        <v>0</v>
+      </c>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
     </row>
@@ -6264,7 +6700,7 @@
         <v>13</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D219" s="3">
         <v>85</v>
@@ -6278,7 +6714,9 @@
       <c r="G219" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H219" s="5"/>
+      <c r="H219" s="6">
+        <v>0</v>
+      </c>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
     </row>
@@ -6290,7 +6728,7 @@
         <v>13</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D220" s="3">
         <v>78</v>
@@ -6304,7 +6742,9 @@
       <c r="G220" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H220" s="5"/>
+      <c r="H220" s="6">
+        <v>0</v>
+      </c>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
     </row>
@@ -6316,7 +6756,7 @@
         <v>13</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D221" s="3">
         <v>66</v>
@@ -6330,7 +6770,9 @@
       <c r="G221" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H221" s="5"/>
+      <c r="H221" s="6">
+        <v>0</v>
+      </c>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
     </row>
@@ -6342,7 +6784,7 @@
         <v>13</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D222" s="3">
         <v>66</v>
@@ -6356,7 +6798,9 @@
       <c r="G222" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H222" s="5"/>
+      <c r="H222" s="6">
+        <v>0</v>
+      </c>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
     </row>
@@ -6368,7 +6812,7 @@
         <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D223" s="3">
         <v>69</v>
@@ -6382,7 +6826,9 @@
       <c r="G223" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H223" s="5"/>
+      <c r="H223" s="6">
+        <v>0</v>
+      </c>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
     </row>
@@ -6394,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D224" s="3">
         <v>66</v>
@@ -6408,7 +6854,9 @@
       <c r="G224" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H224" s="5"/>
+      <c r="H224" s="6">
+        <v>0</v>
+      </c>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
     </row>
@@ -6420,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D225" s="3">
         <v>70</v>
@@ -6434,7 +6882,9 @@
       <c r="G225" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H225" s="5"/>
+      <c r="H225" s="6">
+        <v>0</v>
+      </c>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
     </row>
@@ -6446,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D226" s="3">
         <v>69</v>
@@ -6460,7 +6910,9 @@
       <c r="G226" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H226" s="5"/>
+      <c r="H226" s="6">
+        <v>0</v>
+      </c>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
     </row>
@@ -6472,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D227" s="3">
         <v>73</v>
@@ -6486,7 +6938,9 @@
       <c r="G227" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H227" s="5"/>
+      <c r="H227" s="6">
+        <v>0</v>
+      </c>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
     </row>
@@ -6498,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D228" s="3">
         <v>72</v>
@@ -6512,7 +6966,9 @@
       <c r="G228" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H228" s="5"/>
+      <c r="H228" s="6">
+        <v>0</v>
+      </c>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
     </row>
@@ -6524,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D229" s="3">
         <v>69</v>
@@ -6538,7 +6994,9 @@
       <c r="G229" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H229" s="5"/>
+      <c r="H229" s="6">
+        <v>0</v>
+      </c>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
     </row>
@@ -6550,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D230" s="3">
         <v>83</v>
@@ -6564,7 +7022,9 @@
       <c r="G230" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H230" s="5"/>
+      <c r="H230" s="6">
+        <v>0</v>
+      </c>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
     </row>
@@ -6576,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D231" s="3">
         <v>63</v>
@@ -6590,7 +7050,9 @@
       <c r="G231" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H231" s="5"/>
+      <c r="H231" s="6">
+        <v>0</v>
+      </c>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
     </row>
@@ -6602,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D232" s="3">
         <v>65</v>
@@ -6616,7 +7078,9 @@
       <c r="G232" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H232" s="5"/>
+      <c r="H232" s="6">
+        <v>0</v>
+      </c>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
     </row>
@@ -6628,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D233" s="3">
         <v>63</v>
@@ -6642,7 +7106,9 @@
       <c r="G233" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H233" s="5"/>
+      <c r="H233" s="6">
+        <v>0</v>
+      </c>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
     </row>
@@ -6654,7 +7120,7 @@
         <v>25</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D234" s="3">
         <v>66</v>
@@ -6668,7 +7134,9 @@
       <c r="G234" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H234" s="5"/>
+      <c r="H234" s="6">
+        <v>0</v>
+      </c>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
     </row>
@@ -6680,7 +7148,7 @@
         <v>25</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D235" s="3">
         <v>67</v>
@@ -6694,7 +7162,9 @@
       <c r="G235" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H235" s="5"/>
+      <c r="H235" s="6">
+        <v>0</v>
+      </c>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
     </row>
@@ -6706,7 +7176,7 @@
         <v>25</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D236" s="3">
         <v>63</v>
@@ -6720,7 +7190,9 @@
       <c r="G236" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H236" s="5"/>
+      <c r="H236" s="6">
+        <v>0</v>
+      </c>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
     </row>
@@ -6732,7 +7204,7 @@
         <v>25</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D237" s="3">
         <v>64</v>
@@ -6746,7 +7218,9 @@
       <c r="G237" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H237" s="5"/>
+      <c r="H237" s="6">
+        <v>0</v>
+      </c>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
     </row>
@@ -6758,7 +7232,7 @@
         <v>25</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D238" s="3">
         <v>73</v>
@@ -6772,7 +7246,9 @@
       <c r="G238" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H238" s="5"/>
+      <c r="H238" s="6">
+        <v>0</v>
+      </c>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
     </row>
@@ -6784,7 +7260,7 @@
         <v>25</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D239" s="3">
         <v>70</v>
@@ -6798,7 +7274,9 @@
       <c r="G239" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H239" s="5"/>
+      <c r="H239" s="6">
+        <v>0</v>
+      </c>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
     </row>
@@ -6810,7 +7288,7 @@
         <v>25</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D240" s="3">
         <v>71</v>
@@ -6824,7 +7302,9 @@
       <c r="G240" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H240" s="5"/>
+      <c r="H240" s="6">
+        <v>0</v>
+      </c>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
     </row>
@@ -6836,7 +7316,7 @@
         <v>25</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D241" s="3">
         <v>67</v>
@@ -6850,7 +7330,9 @@
       <c r="G241" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H241" s="5"/>
+      <c r="H241" s="6">
+        <v>0</v>
+      </c>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
     </row>
@@ -6862,7 +7344,7 @@
         <v>25</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D242" s="3">
         <v>65</v>
@@ -6876,7 +7358,9 @@
       <c r="G242" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H242" s="5"/>
+      <c r="H242" s="6">
+        <v>0</v>
+      </c>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
     </row>
@@ -6888,7 +7372,7 @@
         <v>25</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D243" s="3">
         <v>87</v>
@@ -6902,7 +7386,9 @@
       <c r="G243" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H243" s="5"/>
+      <c r="H243" s="6">
+        <v>0</v>
+      </c>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
     </row>
@@ -6914,7 +7400,7 @@
         <v>25</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D244" s="3">
         <v>85</v>
@@ -6928,7 +7414,9 @@
       <c r="G244" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H244" s="5"/>
+      <c r="H244" s="6">
+        <v>0</v>
+      </c>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
     </row>
@@ -6940,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>19</v>
@@ -6954,7 +7442,9 @@
       <c r="G245" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H245" s="5"/>
+      <c r="H245" s="6">
+        <v>0</v>
+      </c>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
     </row>
@@ -6966,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>19</v>
@@ -6980,7 +7470,9 @@
       <c r="G246" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H246" s="5"/>
+      <c r="H246" s="6">
+        <v>0</v>
+      </c>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
     </row>
@@ -6992,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>19</v>
@@ -7006,7 +7498,9 @@
       <c r="G247" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H247" s="5"/>
+      <c r="H247" s="6">
+        <v>0</v>
+      </c>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
     </row>
@@ -7018,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>19</v>
@@ -7032,7 +7526,9 @@
       <c r="G248" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H248" s="5"/>
+      <c r="H248" s="6">
+        <v>0</v>
+      </c>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
     </row>
@@ -7044,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>20</v>
@@ -7058,7 +7554,9 @@
       <c r="G249" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H249" s="5"/>
+      <c r="H249" s="6">
+        <v>0</v>
+      </c>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
     </row>
@@ -7070,7 +7568,7 @@
         <v>26</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>20</v>
@@ -7084,7 +7582,9 @@
       <c r="G250" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H250" s="5"/>
+      <c r="H250" s="6">
+        <v>0</v>
+      </c>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
     </row>
@@ -7096,7 +7596,7 @@
         <v>26</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>19</v>
@@ -7110,7 +7610,9 @@
       <c r="G251" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H251" s="5"/>
+      <c r="H251" s="6">
+        <v>0</v>
+      </c>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
     </row>
@@ -7122,7 +7624,7 @@
         <v>26</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>20</v>
@@ -7136,7 +7638,9 @@
       <c r="G252" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H252" s="5"/>
+      <c r="H252" s="6">
+        <v>0</v>
+      </c>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
     </row>
@@ -7148,7 +7652,7 @@
         <v>25</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>21</v>
@@ -7162,7 +7666,9 @@
       <c r="G253" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H253" s="5"/>
+      <c r="H253" s="6">
+        <v>0</v>
+      </c>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
     </row>
@@ -7174,7 +7680,7 @@
         <v>25</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>21</v>
@@ -7188,7 +7694,9 @@
       <c r="G254" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H254" s="5"/>
+      <c r="H254" s="6">
+        <v>0</v>
+      </c>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
     </row>
@@ -7200,7 +7708,7 @@
         <v>25</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>21</v>
@@ -7214,7 +7722,9 @@
       <c r="G255" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H255" s="5"/>
+      <c r="H255" s="6">
+        <v>0</v>
+      </c>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
     </row>
@@ -7226,7 +7736,7 @@
         <v>2</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>21</v>
@@ -7240,7 +7750,9 @@
       <c r="G256" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H256" s="5"/>
+      <c r="H256" s="6">
+        <v>0</v>
+      </c>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
     </row>
@@ -7252,7 +7764,7 @@
         <v>2</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>21</v>
@@ -7266,7 +7778,9 @@
       <c r="G257" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H257" s="5"/>
+      <c r="H257" s="6">
+        <v>0</v>
+      </c>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
     </row>
